--- a/expense.xlsx
+++ b/expense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a30a9c433fdde087/Semester 5/Magang Tematik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D4B0341-DF12-4294-8742-9A82318C234A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3D4B0341-DF12-4294-8742-9A82318C234A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E67C7A0A-3DE3-42DC-8601-7E724738E92B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EEE14BD9-6BF6-4330-B42B-52EF74589B8E}"/>
   </bookViews>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAECB5C5-A5C2-4570-B178-6743B2758502}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.13644199649054398</v>
+        <v>0.67298194597496086</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.13297308708474032</v>
+        <v>0.67127144929829152</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.12958977886392561</v>
+        <v>0.66953795732020382</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.12629002742707074</v>
+        <v>0.66778166970734387</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +443,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.3954226951001846E-2</v>
+        <v>0.66600278840446681</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4.2832447206824387E-2</v>
+        <v>0.66420151759574309</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.1737626807367423E-2</v>
+        <v>0.66237806366570795</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.0669163091280991E-2</v>
+        <v>0.66053263515986227</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +475,407 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3.9626862157697701E-2</v>
+        <v>0.65866544274493821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.6567766991688373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.6548666192202538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.65293541968799296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.65130247056258039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.64964707591482374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.64796942673748459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.64626971626513763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.64454813993707893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.64280489535987939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.64104018226959214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.63925420249362275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.63744715991227396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.6356192604199753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.63377071188620704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.63190172411612866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.63032137889877915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.62871931122030944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.62709570592083108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.62545075001004957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.62378463263136963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.62209754502565384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.62038968049464771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.61866123436407783</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.61691240394643698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.61514338850346029</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.61335438920830998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.61154560910747124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.61001617321315404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.60846571462620924</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.60689441223229912</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.6053024470167887</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.60369000203000767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.60205726235217538</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.60040441505800446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.59873164918098887</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.59703915567738608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.59532712738990368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.59359575901110107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.59184524704651342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.59036458848865836</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.58886309618547028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.58734094707464068</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.585798320226953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0.58423539681117387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.58265236005859711</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.58104939522724919</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0.57942668956576471</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0.57778443227694543</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0.57612281448100766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0.57816016142613846</v>
       </c>
     </row>
   </sheetData>

--- a/expense.xlsx
+++ b/expense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a30a9c433fdde087/Semester 5/Magang Tematik/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{3D4B0341-DF12-4294-8742-9A82318C234A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E67C7A0A-3DE3-42DC-8601-7E724738E92B}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{3D4B0341-DF12-4294-8742-9A82318C234A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72CF30FF-2E53-4838-A353-0BC22C8EF12A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EEE14BD9-6BF6-4330-B42B-52EF74589B8E}"/>
   </bookViews>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +62,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAECB5C5-A5C2-4570-B178-6743B2758502}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +420,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.67500000000000004</v>
       </c>
     </row>
@@ -410,473 +428,482 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.67298194597496086</v>
+      <c r="B3" s="1">
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.67127144929829152</v>
+      <c r="B4" s="1">
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.66953795732020382</v>
+      <c r="B5" s="1">
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.66778166970734387</v>
+      <c r="B6" s="1">
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.66600278840446681</v>
+      <c r="B7" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0.66420151759574309</v>
+      <c r="B8" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0.66237806366570795</v>
+      <c r="B9" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.66053263515986227</v>
+      <c r="B10" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.65866544274493821</v>
+      <c r="B11" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0.6567766991688373</v>
+      <c r="B12" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0.6548666192202538</v>
+      <c r="B13" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0.65293541968799296</v>
+      <c r="B14" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0.65130247056258039</v>
+      <c r="B15" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0.64964707591482374</v>
+      <c r="B16" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0.64796942673748459</v>
+      <c r="B17" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0.64626971626513763</v>
+      <c r="B18" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0.64454813993707893</v>
+      <c r="B19" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0.64280489535987939</v>
+      <c r="B20" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0.64104018226959214</v>
+      <c r="B21" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0.63925420249362275</v>
+      <c r="B22" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0.63744715991227396</v>
+      <c r="B23" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0.6356192604199753</v>
+      <c r="B24" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0.63377071188620704</v>
+      <c r="B25" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0.63190172411612866</v>
+      <c r="B26" s="1">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0.63032137889877915</v>
+      <c r="B27" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0.62871931122030944</v>
+      <c r="B28" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0.62709570592083108</v>
+      <c r="B29" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0.62545075001004957</v>
+      <c r="B30" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0.62378463263136963</v>
+      <c r="B31" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0.62209754502565384</v>
+      <c r="B32" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0.62038968049464771</v>
+      <c r="B33" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0.61866123436407783</v>
+      <c r="B34" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>0.61691240394643698</v>
+      <c r="B35" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0.61514338850346029</v>
+      <c r="B36" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0.61335438920830998</v>
+      <c r="B37" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>0.61154560910747124</v>
+      <c r="B38" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0.61001617321315404</v>
+      <c r="B39" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0.60846571462620924</v>
+      <c r="B40" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>0.60689441223229912</v>
+      <c r="B41" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>0.6053024470167887</v>
+      <c r="B42" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>0.60369000203000767</v>
+      <c r="B43" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>0.60205726235217538</v>
+      <c r="B44" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>0.60040441505800446</v>
+      <c r="B45" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>0.59873164918098887</v>
+      <c r="B46" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>0.59703915567738608</v>
+      <c r="B47" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>0.59532712738990368</v>
+      <c r="B48" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>0.59359575901110107</v>
+      <c r="B49" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>0.59184524704651342</v>
+      <c r="B50" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>0.59036458848865836</v>
+      <c r="B51" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>0.58886309618547028</v>
+      <c r="B52" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>0.58734094707464068</v>
+      <c r="B53" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>0.585798320226953</v>
+      <c r="B54" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>0.58423539681117387</v>
+      <c r="B55" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>0.58265236005859711</v>
+      <c r="B56" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>0.58104939522724919</v>
+      <c r="B57" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>0.57942668956576471</v>
+      <c r="B58" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>0.57778443227694543</v>
+      <c r="B59" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>0.57612281448100766</v>
+      <c r="B60" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>0.57816016142613846</v>
-      </c>
+      <c r="B61" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
